--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanta\Documents\GitHub\PSIT-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92C57A-7E1F-44F3-A2E4-FD3DAB3F17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A818A51-80D5-42D0-88D9-AC7E9597114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4935" yWindow="465" windowWidth="21000" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,13 +483,14 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
@@ -498,7 +499,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
